--- a/Result/LSTM Multi/Manufacturing/CAN.xlsx
+++ b/Result/LSTM Multi/Manufacturing/CAN.xlsx
@@ -580,7 +580,7 @@
         <v>2017</v>
       </c>
       <c r="B2">
-        <v>9.386749267578125</v>
+        <v>9.30980396270752</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -588,7 +588,7 @@
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>9.545111656188965</v>
+        <v>9.48149299621582</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -596,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="B4">
-        <v>9.789236068725586</v>
+        <v>9.671958923339844</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="B5">
-        <v>10.02283382415771</v>
+        <v>9.908696174621582</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -612,7 +612,7 @@
         <v>2021</v>
       </c>
       <c r="B6">
-        <v>9.890236854553223</v>
+        <v>9.959015846252441</v>
       </c>
     </row>
   </sheetData>
@@ -862,7 +862,7 @@
         <v>2022</v>
       </c>
       <c r="B2">
-        <v>10.16661071777344</v>
+        <v>10.22593688964844</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -870,7 +870,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>10.34670829772949</v>
+        <v>10.3259449005127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -878,7 +878,7 @@
         <v>2024</v>
       </c>
       <c r="B4">
-        <v>10.49816036224365</v>
+        <v>10.33316516876221</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -886,7 +886,7 @@
         <v>2025</v>
       </c>
       <c r="B5">
-        <v>10.59305381774902</v>
+        <v>10.41790771484375</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -894,7 +894,7 @@
         <v>2026</v>
       </c>
       <c r="B6">
-        <v>10.45724201202393</v>
+        <v>10.49887180328369</v>
       </c>
     </row>
   </sheetData>
